--- a/forms/contact/person-create.xlsx
+++ b/forms/contact/person-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="445">
   <si>
     <t>type</t>
   </si>
@@ -2084,10 +2084,10 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2921,7 +2921,9 @@
       <c r="B19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -20666,7 +20668,7 @@
       </c>
       <c r="C2" s="25">
         <f ca="1">NOW()</f>
-        <v>44826.662110648147</v>
+        <v>44826.66425347222</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>442</v>
